--- a/10.Grouping-Data/Grouping-Data.xlsx
+++ b/10.Grouping-Data/Grouping-Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\oracle\10.Grouping-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A729A-8141-44A6-A468-3713DC354CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0F902-E086-480D-A423-9F032C807A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="300" windowWidth="24900" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GROUP BY Clause (Part 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="GROUP BY Clause (Part 2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>oracle</t>
     <phoneticPr fontId="1"/>
@@ -260,6 +261,323 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2.GROUP+BY+Clause+(Part+2)+(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oracle\10.Grouping-Data\2.GROUP+BY+Clause+(Part+2)+(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/************* The Complete Oracle SQL Bootcamp *************</t>
+  </si>
+  <si>
+    <t> * Author  : Oracle Master Training                         *</t>
+  </si>
+  <si>
+    <t> * Course  : The Complete Oracle SQL Bootcamp               *</t>
+  </si>
+  <si>
+    <t> * Lecture : GROUP BY Clause (Part 2)                       *</t>
+  </si>
+  <si>
+    <t> ************************************************************/</t>
+  </si>
+  <si>
+    <t>SELECT job_id, department_id, avg(salary) FROM employees</t>
+  </si>
+  <si>
+    <t>GROUP BY job_id, department_id;</t>
+  </si>
+  <si>
+    <t>SELECT avg(salary) FROM employees</t>
+  </si>
+  <si>
+    <t>SELECT job_id, sum(salary), max(hire_date), count(*) FROM employees</t>
+  </si>
+  <si>
+    <t>WHERE job_id IN ('IT_PROG','ST_MAN','AC_ACCOUNT')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT job_id, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>department_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, avg(salary) FROM employees</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job_id, department_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, avg(salary) FROM employees</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job_id, department_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BY job_id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> department_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Because we have a rule a bout the order of execution of our SQL queries </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can see the column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aliases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are created in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statement so that is at the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fifth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rank but the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clause is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>third</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so the GROUP BY clause </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">is executed before the SELECT statement. That is  the reason why we can not use the column aliases in the GROUP BY, because they have not been created </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yet.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can use aliases in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORDER BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clause because the SELECT statement are executed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORDER BY clause</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -396,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -407,6 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -870,6 +1189,661 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196851</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>197305</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A295057-0ED1-43B5-FF6F-32097997AF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="854076" y="22059901"/>
+          <a:ext cx="11833679" cy="5486654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D1A45E-57C4-CC50-723F-344DD98FB5B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796925" y="18370549"/>
+          <a:ext cx="8166100" cy="3397485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 下 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEC5D2B-ED2F-EBD2-295D-62DCEDCE4658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="22126575"/>
+          <a:ext cx="257175" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>65677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A58DE7A-EE31-F87D-3D4E-DA59AF4DEA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781048" y="23183849"/>
+          <a:ext cx="7334251" cy="6825253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458626</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>76899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA136602-2C71-EB5E-D490-0D166109DBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="30727650"/>
+          <a:ext cx="10221751" cy="5010849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>121655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1A14D4-8F7B-9901-D8B0-2A24611BED2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="36639500"/>
+          <a:ext cx="6705600" cy="6684380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>86054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E45886F-D91E-5974-E011-8FCFFAF86BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="768350" y="44040425"/>
+          <a:ext cx="9966325" cy="4969204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>67201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160C1B0B-4888-4AF4-E9D1-10409E7A0A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="49730025"/>
+          <a:ext cx="6715125" cy="6341001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136712</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>182282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>497542</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>182866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6FBE5C-118B-FC27-38F8-3C7D28C482FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="794124" y="57616164"/>
+          <a:ext cx="10222006" cy="4863937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52295</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>109824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4241DA-1280-06E1-B6D8-E6D5AA00DBF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709707" y="63298294"/>
+          <a:ext cx="9958293" cy="4435294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD2D5BF-9903-5BEF-2093-C7027ADF04C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2868706" y="63156353"/>
+          <a:ext cx="1322294" cy="3548529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>209176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8502DB1-DB57-A7F6-D5B0-B21949CD1BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3847353" y="63178765"/>
+          <a:ext cx="3712882" cy="2569882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171824</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>46608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B792B3CC-F22F-263E-AAED-1B01F48E5D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769470" y="69095471"/>
+          <a:ext cx="9920942" cy="5522549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>186764</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404558</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB78D20-EAD0-9958-77B8-9DD667B4F1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844176" y="75617294"/>
+          <a:ext cx="6134500" cy="3189941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1135,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S240" sqref="S240"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1272,145 +2246,46 @@
     </row>
     <row r="125" spans="2:14">
       <c r="B125" s="4"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
       <c r="L125" s="5"/>
     </row>
     <row r="126" spans="2:14">
       <c r="B126" s="4"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
       <c r="L126" s="5"/>
     </row>
     <row r="127" spans="2:14">
       <c r="B127" s="4"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
       <c r="L127" s="5"/>
     </row>
     <row r="128" spans="2:14">
       <c r="B128" s="4"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="2:14">
       <c r="B129" s="4"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="2:14">
       <c r="B130" s="4"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
       <c r="L130" s="5"/>
     </row>
     <row r="131" spans="2:14">
       <c r="B131" s="4"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
       <c r="L131" s="5"/>
     </row>
     <row r="132" spans="2:14">
       <c r="B132" s="4"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
       <c r="L132" s="5"/>
     </row>
     <row r="133" spans="2:14">
       <c r="B133" s="4"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="2:14">
       <c r="B134" s="4"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="2:14">
       <c r="B135" s="4"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
       <c r="L135" s="5"/>
     </row>
     <row r="136" spans="2:14">
@@ -1449,145 +2324,46 @@
     </row>
     <row r="140" spans="2:14">
       <c r="B140" s="4"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="2:14">
       <c r="B141" s="4"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="2:14">
       <c r="B142" s="4"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="2:14">
       <c r="B143" s="4"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="2:14">
       <c r="B144" s="4"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="2:14">
       <c r="B145" s="4"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
       <c r="L145" s="5"/>
     </row>
     <row r="146" spans="2:14">
       <c r="B146" s="4"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="2:14">
       <c r="B147" s="4"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
       <c r="L147" s="5"/>
     </row>
     <row r="148" spans="2:14">
       <c r="B148" s="4"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="2:14">
       <c r="B149" s="4"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="2:14">
       <c r="B150" s="4"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="2:14">
@@ -1626,15 +2402,6 @@
     </row>
     <row r="155" spans="2:14">
       <c r="B155" s="4"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
       <c r="L155" s="5"/>
       <c r="N155" t="s">
         <v>17</v>
@@ -1642,132 +2409,42 @@
     </row>
     <row r="156" spans="2:14">
       <c r="B156" s="4"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
       <c r="L156" s="5"/>
     </row>
     <row r="157" spans="2:14">
       <c r="B157" s="4"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
       <c r="L157" s="5"/>
     </row>
     <row r="158" spans="2:14">
       <c r="B158" s="4"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
       <c r="L158" s="5"/>
     </row>
     <row r="159" spans="2:14">
       <c r="B159" s="4"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
       <c r="L159" s="5"/>
     </row>
     <row r="160" spans="2:14">
       <c r="B160" s="4"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
       <c r="L160" s="5"/>
     </row>
     <row r="161" spans="2:12">
       <c r="B161" s="4"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
       <c r="L161" s="5"/>
     </row>
     <row r="162" spans="2:12">
       <c r="B162" s="4"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
       <c r="L162" s="5"/>
     </row>
     <row r="163" spans="2:12">
       <c r="B163" s="4"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
       <c r="L163" s="5"/>
     </row>
     <row r="164" spans="2:12">
       <c r="B164" s="4"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
       <c r="L164" s="5"/>
     </row>
     <row r="165" spans="2:12">
       <c r="B165" s="4"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
       <c r="L165" s="5"/>
     </row>
     <row r="166" spans="2:12">
@@ -1802,379 +2479,118 @@
       <c r="B170" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
       <c r="L170" s="5"/>
     </row>
     <row r="171" spans="2:12">
       <c r="B171" s="4"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
       <c r="L171" s="5"/>
     </row>
     <row r="172" spans="2:12">
       <c r="B172" s="4"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
       <c r="L172" s="5"/>
     </row>
     <row r="173" spans="2:12">
       <c r="B173" s="4"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
       <c r="L173" s="5"/>
     </row>
     <row r="174" spans="2:12">
       <c r="B174" s="4"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
       <c r="L174" s="5"/>
     </row>
     <row r="175" spans="2:12">
       <c r="B175" s="4"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
       <c r="L175" s="5"/>
     </row>
     <row r="176" spans="2:12">
       <c r="B176" s="4"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
       <c r="L176" s="5"/>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="4"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
       <c r="L177" s="5"/>
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="4"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
       <c r="L178" s="5"/>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="4"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
       <c r="L179" s="5"/>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="4"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
       <c r="L180" s="5"/>
     </row>
     <row r="181" spans="2:12">
       <c r="B181" s="4"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
       <c r="L181" s="5"/>
     </row>
     <row r="182" spans="2:12">
       <c r="B182" s="4"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
       <c r="L182" s="5"/>
     </row>
     <row r="183" spans="2:12">
       <c r="B183" s="4"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
       <c r="L183" s="5"/>
     </row>
     <row r="184" spans="2:12">
       <c r="B184" s="4"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
       <c r="L184" s="5"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="4"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-      <c r="K185" s="10"/>
       <c r="L185" s="5"/>
     </row>
     <row r="186" spans="2:12">
       <c r="B186" s="4"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-      <c r="K186" s="10"/>
       <c r="L186" s="5"/>
     </row>
     <row r="187" spans="2:12">
       <c r="B187" s="4"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-      <c r="K187" s="10"/>
       <c r="L187" s="5"/>
     </row>
     <row r="188" spans="2:12">
       <c r="B188" s="4"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
       <c r="L188" s="5"/>
     </row>
     <row r="189" spans="2:12">
       <c r="B189" s="4"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-      <c r="K189" s="10"/>
       <c r="L189" s="5"/>
     </row>
     <row r="190" spans="2:12">
       <c r="B190" s="4"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
       <c r="L190" s="5"/>
     </row>
     <row r="191" spans="2:12">
       <c r="B191" s="4"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="10"/>
       <c r="L191" s="5"/>
     </row>
     <row r="192" spans="2:12">
       <c r="B192" s="4"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10"/>
       <c r="L192" s="5"/>
     </row>
     <row r="193" spans="2:12">
       <c r="B193" s="4"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-      <c r="K193" s="10"/>
       <c r="L193" s="5"/>
     </row>
     <row r="194" spans="2:12">
       <c r="B194" s="4"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
       <c r="L194" s="5"/>
     </row>
     <row r="195" spans="2:12">
       <c r="B195" s="4"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
       <c r="L195" s="5"/>
     </row>
     <row r="196" spans="2:12">
       <c r="B196" s="4"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-      <c r="K196" s="10"/>
       <c r="L196" s="5"/>
     </row>
     <row r="197" spans="2:12">
       <c r="B197" s="4"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-      <c r="K197" s="10"/>
       <c r="L197" s="5"/>
     </row>
     <row r="198" spans="2:12">
       <c r="B198" s="4"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="10"/>
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="2:12">
@@ -2209,394 +2625,124 @@
       <c r="B203" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="10"/>
       <c r="L203" s="5"/>
     </row>
     <row r="204" spans="2:12">
       <c r="B204" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
       <c r="L204" s="5"/>
     </row>
     <row r="205" spans="2:12">
       <c r="B205" s="4"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-      <c r="K205" s="10"/>
       <c r="L205" s="5"/>
     </row>
     <row r="206" spans="2:12">
       <c r="B206" s="4"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-      <c r="K206" s="10"/>
       <c r="L206" s="5"/>
     </row>
     <row r="207" spans="2:12">
       <c r="B207" s="4"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10"/>
-      <c r="J207" s="10"/>
-      <c r="K207" s="10"/>
       <c r="L207" s="5"/>
     </row>
     <row r="208" spans="2:12">
       <c r="B208" s="4"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-      <c r="K208" s="10"/>
       <c r="L208" s="5"/>
     </row>
     <row r="209" spans="2:12">
       <c r="B209" s="4"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
       <c r="L209" s="5"/>
     </row>
     <row r="210" spans="2:12">
       <c r="B210" s="4"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
       <c r="L210" s="5"/>
     </row>
     <row r="211" spans="2:12">
       <c r="B211" s="4"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
       <c r="L211" s="5"/>
     </row>
     <row r="212" spans="2:12">
       <c r="B212" s="4"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
       <c r="L212" s="5"/>
     </row>
     <row r="213" spans="2:12">
       <c r="B213" s="4"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="10"/>
       <c r="L213" s="5"/>
     </row>
     <row r="214" spans="2:12">
       <c r="B214" s="4"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-      <c r="K214" s="10"/>
       <c r="L214" s="5"/>
     </row>
     <row r="215" spans="2:12">
       <c r="B215" s="4"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
       <c r="L215" s="5"/>
     </row>
     <row r="216" spans="2:12">
       <c r="B216" s="4"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="10"/>
       <c r="L216" s="5"/>
     </row>
     <row r="217" spans="2:12">
       <c r="B217" s="4"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
       <c r="L217" s="5"/>
     </row>
     <row r="218" spans="2:12">
       <c r="B218" s="4"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
-      <c r="K218" s="10"/>
       <c r="L218" s="5"/>
     </row>
     <row r="219" spans="2:12">
       <c r="B219" s="4"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="10"/>
       <c r="L219" s="5"/>
     </row>
     <row r="220" spans="2:12">
       <c r="B220" s="4"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-      <c r="K220" s="10"/>
       <c r="L220" s="5"/>
     </row>
     <row r="221" spans="2:12">
       <c r="B221" s="4"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
-      <c r="K221" s="10"/>
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="2:12">
       <c r="B222" s="4"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="10"/>
       <c r="L222" s="5"/>
     </row>
     <row r="223" spans="2:12">
       <c r="B223" s="4"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="J223" s="10"/>
-      <c r="K223" s="10"/>
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="2:12">
       <c r="B224" s="4"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
-      <c r="K224" s="10"/>
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="2:14">
       <c r="B225" s="4"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
-      <c r="K225" s="10"/>
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="2:14">
       <c r="B226" s="4"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
-      <c r="K226" s="10"/>
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="2:14">
       <c r="B227" s="4"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="10"/>
-      <c r="I227" s="10"/>
-      <c r="J227" s="10"/>
-      <c r="K227" s="10"/>
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="2:14">
       <c r="B228" s="4"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="10"/>
-      <c r="I228" s="10"/>
-      <c r="J228" s="10"/>
-      <c r="K228" s="10"/>
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="2:14">
       <c r="B229" s="4"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="10"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="10"/>
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="2:14">
       <c r="B230" s="4"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="10"/>
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="2:14">
       <c r="B231" s="4"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
-      <c r="J231" s="10"/>
-      <c r="K231" s="10"/>
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="2:14">
       <c r="B232" s="4"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
-      <c r="K232" s="10"/>
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="2:14">
@@ -2637,459 +2783,144 @@
       <c r="B237" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="10"/>
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="2:14">
       <c r="B238" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
-      <c r="K238" s="10"/>
       <c r="L238" s="5"/>
     </row>
     <row r="239" spans="2:14">
       <c r="B239" s="4"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-      <c r="K239" s="10"/>
       <c r="L239" s="5"/>
     </row>
     <row r="240" spans="2:14">
       <c r="B240" s="4"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-      <c r="K240" s="10"/>
       <c r="L240" s="5"/>
     </row>
     <row r="241" spans="2:12">
       <c r="B241" s="4"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
       <c r="L241" s="5"/>
     </row>
     <row r="242" spans="2:12">
       <c r="B242" s="4"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="J242" s="10"/>
-      <c r="K242" s="10"/>
       <c r="L242" s="5"/>
     </row>
     <row r="243" spans="2:12">
       <c r="B243" s="4"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-      <c r="K243" s="10"/>
       <c r="L243" s="5"/>
     </row>
     <row r="244" spans="2:12">
       <c r="B244" s="4"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
       <c r="L244" s="5"/>
     </row>
     <row r="245" spans="2:12">
       <c r="B245" s="4"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10"/>
       <c r="L245" s="5"/>
     </row>
     <row r="246" spans="2:12">
       <c r="B246" s="4"/>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-      <c r="K246" s="10"/>
       <c r="L246" s="5"/>
     </row>
     <row r="247" spans="2:12">
       <c r="B247" s="4"/>
-      <c r="C247" s="10"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="10"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
       <c r="L247" s="5"/>
     </row>
     <row r="248" spans="2:12">
       <c r="B248" s="4"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
-      <c r="K248" s="10"/>
       <c r="L248" s="5"/>
     </row>
     <row r="249" spans="2:12">
       <c r="B249" s="4"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="10"/>
-      <c r="F249" s="10"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
-      <c r="K249" s="10"/>
       <c r="L249" s="5"/>
     </row>
     <row r="250" spans="2:12">
       <c r="B250" s="4"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="10"/>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
-      <c r="K250" s="10"/>
       <c r="L250" s="5"/>
     </row>
     <row r="251" spans="2:12">
       <c r="B251" s="4"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="J251" s="10"/>
-      <c r="K251" s="10"/>
       <c r="L251" s="5"/>
     </row>
     <row r="252" spans="2:12">
       <c r="B252" s="4"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
-      <c r="J252" s="10"/>
-      <c r="K252" s="10"/>
       <c r="L252" s="5"/>
     </row>
     <row r="253" spans="2:12">
       <c r="B253" s="4"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
-      <c r="K253" s="10"/>
       <c r="L253" s="5"/>
     </row>
     <row r="254" spans="2:12">
       <c r="B254" s="4"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
-      <c r="I254" s="10"/>
-      <c r="J254" s="10"/>
-      <c r="K254" s="10"/>
       <c r="L254" s="5"/>
     </row>
     <row r="255" spans="2:12">
       <c r="B255" s="4"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-      <c r="K255" s="10"/>
       <c r="L255" s="5"/>
     </row>
     <row r="256" spans="2:12">
       <c r="B256" s="4"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="10"/>
-      <c r="I256" s="10"/>
-      <c r="J256" s="10"/>
-      <c r="K256" s="10"/>
       <c r="L256" s="5"/>
     </row>
     <row r="257" spans="2:12">
       <c r="B257" s="4"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="10"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="10"/>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="10"/>
       <c r="L257" s="5"/>
     </row>
     <row r="258" spans="2:12">
       <c r="B258" s="4"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-      <c r="J258" s="10"/>
-      <c r="K258" s="10"/>
       <c r="L258" s="5"/>
     </row>
     <row r="259" spans="2:12">
       <c r="B259" s="4"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
       <c r="L259" s="5"/>
     </row>
     <row r="260" spans="2:12">
       <c r="B260" s="4"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
       <c r="L260" s="5"/>
     </row>
     <row r="261" spans="2:12">
       <c r="B261" s="4"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="10"/>
       <c r="L261" s="5"/>
     </row>
     <row r="262" spans="2:12">
       <c r="B262" s="4"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
       <c r="L262" s="5"/>
     </row>
     <row r="263" spans="2:12">
       <c r="B263" s="4"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="10"/>
-      <c r="I263" s="10"/>
-      <c r="J263" s="10"/>
-      <c r="K263" s="10"/>
       <c r="L263" s="5"/>
     </row>
     <row r="264" spans="2:12">
       <c r="B264" s="4"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="H264" s="10"/>
-      <c r="I264" s="10"/>
-      <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
       <c r="L264" s="5"/>
     </row>
     <row r="265" spans="2:12">
       <c r="B265" s="4"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
-      <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
-      <c r="J265" s="10"/>
-      <c r="K265" s="10"/>
       <c r="L265" s="5"/>
     </row>
     <row r="266" spans="2:12">
       <c r="B266" s="4"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-      <c r="K266" s="10"/>
       <c r="L266" s="5"/>
     </row>
     <row r="267" spans="2:12">
       <c r="B267" s="4"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10"/>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
       <c r="L267" s="5"/>
     </row>
     <row r="268" spans="2:12">
       <c r="B268" s="4"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
-      <c r="J268" s="10"/>
-      <c r="K268" s="10"/>
       <c r="L268" s="5"/>
     </row>
     <row r="269" spans="2:12">
       <c r="B269" s="4"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
       <c r="L269" s="5"/>
     </row>
     <row r="270" spans="2:12">
       <c r="B270" s="4"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
-      <c r="J270" s="10"/>
-      <c r="K270" s="10"/>
       <c r="L270" s="5"/>
     </row>
     <row r="271" spans="2:12">
       <c r="B271" s="4"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="J271" s="10"/>
-      <c r="K271" s="10"/>
       <c r="L271" s="5"/>
     </row>
     <row r="272" spans="2:12">
@@ -3110,4 +2941,4970 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F03FD27-A5A4-494E-B246-73B26D419222}">
+  <dimension ref="B3:T341"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M327" sqref="M327"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="4"/>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" s="4"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="2:20">
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="2:20">
+      <c r="B65" s="4"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="2:20">
+      <c r="B66" s="4"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="2:20">
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20">
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="2:20">
+      <c r="B69" s="4"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="2:20">
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="2:20">
+      <c r="B71" s="4"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="2:20">
+      <c r="B72" s="4"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="2:20">
+      <c r="B73" s="4"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20">
+      <c r="B74" s="4"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="2:20">
+      <c r="B75" s="4"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="2:20">
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="2:20">
+      <c r="B77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="2:20">
+      <c r="B78" s="4"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="2:20">
+      <c r="B79" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="2:20">
+      <c r="B80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="2:20">
+      <c r="B81" s="4"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="2:20">
+      <c r="B82" s="4"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="2:20">
+      <c r="B83" s="4"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="2:20">
+      <c r="B84" s="4"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="2:20">
+      <c r="B85" s="4"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="2:20">
+      <c r="B86" s="4"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="2:20">
+      <c r="B87" s="4"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="2:20">
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="2:20">
+      <c r="B89" s="4"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="2:20">
+      <c r="B90" s="4"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="2:20">
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="2:20">
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="2:20">
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="2:20">
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="2:20">
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="2:20">
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="9"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="5"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="5"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="5"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="5"/>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="4"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="5"/>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" s="4"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="5"/>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="5"/>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="5"/>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="5"/>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="5"/>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="5"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="5"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="4"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="4"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" s="4"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="5"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="5"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="4"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" s="4"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="9"/>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="B159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="2:12">
+      <c r="B160" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="2:12">
+      <c r="B161" s="4"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162" s="4"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163" s="4"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164" s="4"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165" s="4"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166" s="4"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167" s="4"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168" s="4"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="B169" s="4"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170" s="4"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" spans="2:12">
+      <c r="B171" s="4"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="5"/>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172" s="4"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="2:12">
+      <c r="B173" s="4"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="5"/>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="5"/>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175" s="4"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="5"/>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176" s="4"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="5"/>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="4"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="5"/>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="B180" s="4"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="5"/>
+    </row>
+    <row r="181" spans="2:12">
+      <c r="B181" s="4"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="4"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="B183" s="4"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="5"/>
+    </row>
+    <row r="184" spans="2:12">
+      <c r="B184" s="4"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="B185" s="4"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186" s="4"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="B188" s="4"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" spans="2:12">
+      <c r="B189" s="4"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="5"/>
+    </row>
+    <row r="190" spans="2:12">
+      <c r="B190" s="7"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="9"/>
+    </row>
+    <row r="193" spans="2:17">
+      <c r="B193" s="1"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="3"/>
+    </row>
+    <row r="194" spans="2:17">
+      <c r="B194" s="4"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="5"/>
+    </row>
+    <row r="195" spans="2:17">
+      <c r="B195" s="4"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+      <c r="Q195" s="5"/>
+    </row>
+    <row r="196" spans="2:17">
+      <c r="B196" s="4"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="5"/>
+    </row>
+    <row r="197" spans="2:17">
+      <c r="B197" s="4"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
+      <c r="Q197" s="5"/>
+    </row>
+    <row r="198" spans="2:17">
+      <c r="B198" s="4"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="5"/>
+    </row>
+    <row r="199" spans="2:17">
+      <c r="B199" s="4"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="5"/>
+    </row>
+    <row r="200" spans="2:17">
+      <c r="B200" s="4"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
+      <c r="Q200" s="5"/>
+    </row>
+    <row r="201" spans="2:17">
+      <c r="B201" s="4"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
+      <c r="Q201" s="5"/>
+    </row>
+    <row r="202" spans="2:17">
+      <c r="B202" s="4"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="11"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
+      <c r="Q202" s="5"/>
+    </row>
+    <row r="203" spans="2:17">
+      <c r="B203" s="4"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
+      <c r="Q203" s="5"/>
+    </row>
+    <row r="204" spans="2:17">
+      <c r="B204" s="4"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="5"/>
+    </row>
+    <row r="205" spans="2:17">
+      <c r="B205" s="4"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="11"/>
+      <c r="O205" s="11"/>
+      <c r="P205" s="11"/>
+      <c r="Q205" s="5"/>
+    </row>
+    <row r="206" spans="2:17">
+      <c r="B206" s="4"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+      <c r="Q206" s="5"/>
+    </row>
+    <row r="207" spans="2:17">
+      <c r="B207" s="4"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
+      <c r="Q207" s="5"/>
+    </row>
+    <row r="208" spans="2:17">
+      <c r="B208" s="4"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="5"/>
+    </row>
+    <row r="209" spans="2:17">
+      <c r="B209" s="4"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="11"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
+      <c r="Q209" s="5"/>
+    </row>
+    <row r="210" spans="2:17">
+      <c r="B210" s="4"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="11"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
+      <c r="Q210" s="5"/>
+    </row>
+    <row r="211" spans="2:17">
+      <c r="B211" s="4"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="11"/>
+      <c r="O211" s="11"/>
+      <c r="P211" s="11"/>
+      <c r="Q211" s="5"/>
+    </row>
+    <row r="212" spans="2:17">
+      <c r="B212" s="4"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="11"/>
+      <c r="O212" s="11"/>
+      <c r="P212" s="11"/>
+      <c r="Q212" s="5"/>
+    </row>
+    <row r="213" spans="2:17">
+      <c r="B213" s="4"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="11"/>
+      <c r="O213" s="11"/>
+      <c r="P213" s="11"/>
+      <c r="Q213" s="5"/>
+    </row>
+    <row r="214" spans="2:17">
+      <c r="B214" s="4"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="11"/>
+      <c r="O214" s="11"/>
+      <c r="P214" s="11"/>
+      <c r="Q214" s="5"/>
+    </row>
+    <row r="215" spans="2:17">
+      <c r="B215" s="4"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="11"/>
+      <c r="O215" s="11"/>
+      <c r="P215" s="11"/>
+      <c r="Q215" s="5"/>
+    </row>
+    <row r="216" spans="2:17">
+      <c r="B216" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="11"/>
+      <c r="O216" s="11"/>
+      <c r="P216" s="11"/>
+      <c r="Q216" s="5"/>
+    </row>
+    <row r="217" spans="2:17">
+      <c r="B217" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="11"/>
+      <c r="O217" s="11"/>
+      <c r="P217" s="11"/>
+      <c r="Q217" s="5"/>
+    </row>
+    <row r="218" spans="2:17">
+      <c r="B218" s="4"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="11"/>
+      <c r="O218" s="11"/>
+      <c r="P218" s="11"/>
+      <c r="Q218" s="5"/>
+    </row>
+    <row r="219" spans="2:17">
+      <c r="B219" s="4"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
+      <c r="Q219" s="5"/>
+    </row>
+    <row r="220" spans="2:17">
+      <c r="B220" s="4"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="5"/>
+    </row>
+    <row r="221" spans="2:17">
+      <c r="B221" s="4"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="5"/>
+    </row>
+    <row r="222" spans="2:17">
+      <c r="B222" s="4"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="5"/>
+    </row>
+    <row r="223" spans="2:17">
+      <c r="B223" s="4"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="5"/>
+    </row>
+    <row r="224" spans="2:17">
+      <c r="B224" s="4"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="5"/>
+    </row>
+    <row r="225" spans="2:17">
+      <c r="B225" s="4"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="5"/>
+    </row>
+    <row r="226" spans="2:17">
+      <c r="B226" s="4"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="5"/>
+    </row>
+    <row r="227" spans="2:17">
+      <c r="B227" s="4"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="5"/>
+    </row>
+    <row r="228" spans="2:17">
+      <c r="B228" s="4"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="5"/>
+    </row>
+    <row r="229" spans="2:17">
+      <c r="B229" s="4"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="5"/>
+    </row>
+    <row r="230" spans="2:17">
+      <c r="B230" s="4"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="5"/>
+    </row>
+    <row r="231" spans="2:17">
+      <c r="B231" s="4"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="5"/>
+    </row>
+    <row r="232" spans="2:17">
+      <c r="B232" s="4"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="5"/>
+    </row>
+    <row r="233" spans="2:17">
+      <c r="B233" s="4"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="5"/>
+    </row>
+    <row r="234" spans="2:17">
+      <c r="B234" s="4"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
+      <c r="Q234" s="5"/>
+    </row>
+    <row r="235" spans="2:17">
+      <c r="B235" s="4"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="11"/>
+      <c r="O235" s="11"/>
+      <c r="P235" s="11"/>
+      <c r="Q235" s="5"/>
+    </row>
+    <row r="236" spans="2:17">
+      <c r="B236" s="4"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
+      <c r="Q236" s="5"/>
+    </row>
+    <row r="237" spans="2:17">
+      <c r="B237" s="4"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="5"/>
+    </row>
+    <row r="238" spans="2:17">
+      <c r="B238" s="4"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
+      <c r="Q238" s="5"/>
+    </row>
+    <row r="239" spans="2:17">
+      <c r="B239" s="4"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
+      <c r="Q239" s="5"/>
+    </row>
+    <row r="240" spans="2:17">
+      <c r="B240" s="4"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
+      <c r="Q240" s="5"/>
+    </row>
+    <row r="241" spans="2:17">
+      <c r="B241" s="4"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
+      <c r="Q241" s="5"/>
+    </row>
+    <row r="242" spans="2:17">
+      <c r="B242" s="4"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="5"/>
+    </row>
+    <row r="243" spans="2:17">
+      <c r="B243" s="4"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
+      <c r="Q243" s="5"/>
+    </row>
+    <row r="244" spans="2:17">
+      <c r="B244" s="4"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="5"/>
+    </row>
+    <row r="245" spans="2:17">
+      <c r="B245" s="4"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="5"/>
+    </row>
+    <row r="246" spans="2:17">
+      <c r="B246" s="7"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="8"/>
+      <c r="I246" s="8"/>
+      <c r="J246" s="8"/>
+      <c r="K246" s="8"/>
+      <c r="L246" s="8"/>
+      <c r="M246" s="8"/>
+      <c r="N246" s="8"/>
+      <c r="O246" s="8"/>
+      <c r="P246" s="8"/>
+      <c r="Q246" s="9"/>
+    </row>
+    <row r="249" spans="2:17">
+      <c r="B249" s="1"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="3"/>
+    </row>
+    <row r="250" spans="2:17">
+      <c r="B250" s="4"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="11"/>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
+      <c r="N250" s="11"/>
+      <c r="O250" s="11"/>
+      <c r="P250" s="11"/>
+      <c r="Q250" s="5"/>
+    </row>
+    <row r="251" spans="2:17">
+      <c r="B251" s="4"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="11"/>
+      <c r="L251" s="11"/>
+      <c r="M251" s="11"/>
+      <c r="N251" s="11"/>
+      <c r="O251" s="11"/>
+      <c r="P251" s="11"/>
+      <c r="Q251" s="5"/>
+    </row>
+    <row r="252" spans="2:17">
+      <c r="B252" s="4"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="11"/>
+      <c r="L252" s="11"/>
+      <c r="M252" s="11"/>
+      <c r="N252" s="11"/>
+      <c r="O252" s="11"/>
+      <c r="P252" s="11"/>
+      <c r="Q252" s="5"/>
+    </row>
+    <row r="253" spans="2:17">
+      <c r="B253" s="4"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="5"/>
+    </row>
+    <row r="254" spans="2:17">
+      <c r="B254" s="4"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="11"/>
+      <c r="L254" s="11"/>
+      <c r="M254" s="11"/>
+      <c r="N254" s="11"/>
+      <c r="O254" s="11"/>
+      <c r="P254" s="11"/>
+      <c r="Q254" s="5"/>
+    </row>
+    <row r="255" spans="2:17">
+      <c r="B255" s="4"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="11"/>
+      <c r="O255" s="11"/>
+      <c r="P255" s="11"/>
+      <c r="Q255" s="5"/>
+    </row>
+    <row r="256" spans="2:17">
+      <c r="B256" s="4"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
+      <c r="N256" s="11"/>
+      <c r="O256" s="11"/>
+      <c r="P256" s="11"/>
+      <c r="Q256" s="5"/>
+    </row>
+    <row r="257" spans="2:17">
+      <c r="B257" s="4"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="5"/>
+    </row>
+    <row r="258" spans="2:17">
+      <c r="B258" s="4"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="5"/>
+    </row>
+    <row r="259" spans="2:17">
+      <c r="B259" s="4"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="11"/>
+      <c r="M259" s="11"/>
+      <c r="N259" s="11"/>
+      <c r="O259" s="11"/>
+      <c r="P259" s="11"/>
+      <c r="Q259" s="5"/>
+    </row>
+    <row r="260" spans="2:17">
+      <c r="B260" s="4"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="11"/>
+      <c r="M260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="5"/>
+    </row>
+    <row r="261" spans="2:17">
+      <c r="B261" s="4"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11"/>
+      <c r="P261" s="11"/>
+      <c r="Q261" s="5"/>
+    </row>
+    <row r="262" spans="2:17">
+      <c r="B262" s="4"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="5"/>
+    </row>
+    <row r="263" spans="2:17">
+      <c r="B263" s="4"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="5"/>
+    </row>
+    <row r="264" spans="2:17">
+      <c r="B264" s="4"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+      <c r="P264" s="11"/>
+      <c r="Q264" s="5"/>
+    </row>
+    <row r="265" spans="2:17">
+      <c r="B265" s="4"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+      <c r="P265" s="11"/>
+      <c r="Q265" s="5"/>
+    </row>
+    <row r="266" spans="2:17">
+      <c r="B266" s="4"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="5"/>
+    </row>
+    <row r="267" spans="2:17">
+      <c r="B267" s="4"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="5"/>
+    </row>
+    <row r="268" spans="2:17">
+      <c r="B268" s="4"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="11"/>
+      <c r="Q268" s="5"/>
+    </row>
+    <row r="269" spans="2:17">
+      <c r="B269" s="4"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="5"/>
+    </row>
+    <row r="270" spans="2:17">
+      <c r="B270" s="4"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="5"/>
+    </row>
+    <row r="271" spans="2:17">
+      <c r="B271" s="4"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="5"/>
+    </row>
+    <row r="272" spans="2:17">
+      <c r="B272" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="5"/>
+    </row>
+    <row r="273" spans="2:17">
+      <c r="B273" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="5"/>
+    </row>
+    <row r="274" spans="2:17">
+      <c r="B274" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="P274" s="11"/>
+      <c r="Q274" s="5"/>
+    </row>
+    <row r="275" spans="2:17">
+      <c r="B275" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11"/>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="5"/>
+    </row>
+    <row r="276" spans="2:17">
+      <c r="B276" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="5"/>
+    </row>
+    <row r="277" spans="2:17">
+      <c r="B277" s="4"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="5"/>
+    </row>
+    <row r="278" spans="2:17">
+      <c r="B278" s="4"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11"/>
+      <c r="O278" s="11"/>
+      <c r="P278" s="11"/>
+      <c r="Q278" s="5"/>
+    </row>
+    <row r="279" spans="2:17">
+      <c r="B279" s="4"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="5"/>
+    </row>
+    <row r="280" spans="2:17">
+      <c r="B280" s="4"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="5"/>
+    </row>
+    <row r="281" spans="2:17">
+      <c r="B281" s="4"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="5"/>
+    </row>
+    <row r="282" spans="2:17">
+      <c r="B282" s="4"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="5"/>
+    </row>
+    <row r="283" spans="2:17">
+      <c r="B283" s="4"/>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="11"/>
+      <c r="Q283" s="5"/>
+    </row>
+    <row r="284" spans="2:17">
+      <c r="B284" s="4"/>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
+      <c r="Q284" s="5"/>
+    </row>
+    <row r="285" spans="2:17">
+      <c r="B285" s="4"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="5"/>
+    </row>
+    <row r="286" spans="2:17">
+      <c r="B286" s="4"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+      <c r="I286" s="11"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="5"/>
+    </row>
+    <row r="287" spans="2:17">
+      <c r="B287" s="4"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="5"/>
+    </row>
+    <row r="288" spans="2:17">
+      <c r="B288" s="4"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="5"/>
+    </row>
+    <row r="289" spans="2:17">
+      <c r="B289" s="4"/>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="11"/>
+      <c r="O289" s="11"/>
+      <c r="P289" s="11"/>
+      <c r="Q289" s="5"/>
+    </row>
+    <row r="290" spans="2:17">
+      <c r="B290" s="4"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="5"/>
+    </row>
+    <row r="291" spans="2:17">
+      <c r="B291" s="4"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11"/>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="5"/>
+    </row>
+    <row r="292" spans="2:17">
+      <c r="B292" s="4"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+      <c r="I292" s="11"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11"/>
+      <c r="P292" s="11"/>
+      <c r="Q292" s="5"/>
+    </row>
+    <row r="293" spans="2:17">
+      <c r="B293" s="4"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11"/>
+      <c r="P293" s="11"/>
+      <c r="Q293" s="5"/>
+    </row>
+    <row r="294" spans="2:17">
+      <c r="B294" s="4"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="5"/>
+    </row>
+    <row r="295" spans="2:17">
+      <c r="B295" s="4"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="11"/>
+      <c r="M295" s="11"/>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11"/>
+      <c r="P295" s="11"/>
+      <c r="Q295" s="5"/>
+    </row>
+    <row r="296" spans="2:17">
+      <c r="B296" s="7"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
+      <c r="J296" s="8"/>
+      <c r="K296" s="8"/>
+      <c r="L296" s="8"/>
+      <c r="M296" s="8"/>
+      <c r="N296" s="8"/>
+      <c r="O296" s="8"/>
+      <c r="P296" s="8"/>
+      <c r="Q296" s="9"/>
+    </row>
+    <row r="299" spans="2:17">
+      <c r="B299" s="1"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="K299" s="2"/>
+      <c r="L299" s="2"/>
+      <c r="M299" s="2"/>
+      <c r="N299" s="2"/>
+      <c r="O299" s="2"/>
+      <c r="P299" s="2"/>
+      <c r="Q299" s="3"/>
+    </row>
+    <row r="300" spans="2:17">
+      <c r="B300" s="4"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="5"/>
+    </row>
+    <row r="301" spans="2:17">
+      <c r="B301" s="4"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="11"/>
+      <c r="N301" s="11"/>
+      <c r="O301" s="11"/>
+      <c r="P301" s="11"/>
+      <c r="Q301" s="5"/>
+    </row>
+    <row r="302" spans="2:17">
+      <c r="B302" s="4"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="L302" s="11"/>
+      <c r="M302" s="11"/>
+      <c r="N302" s="11"/>
+      <c r="O302" s="11"/>
+      <c r="P302" s="11"/>
+      <c r="Q302" s="5"/>
+    </row>
+    <row r="303" spans="2:17">
+      <c r="B303" s="4"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="11"/>
+      <c r="M303" s="11"/>
+      <c r="N303" s="11"/>
+      <c r="O303" s="11"/>
+      <c r="P303" s="11"/>
+      <c r="Q303" s="5"/>
+    </row>
+    <row r="304" spans="2:17">
+      <c r="B304" s="4"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="11"/>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="O304" s="11"/>
+      <c r="P304" s="11"/>
+      <c r="Q304" s="5"/>
+    </row>
+    <row r="305" spans="2:17">
+      <c r="B305" s="4"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="11"/>
+      <c r="M305" s="11"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
+      <c r="P305" s="11"/>
+      <c r="Q305" s="5"/>
+    </row>
+    <row r="306" spans="2:17">
+      <c r="B306" s="4"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="11"/>
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="11"/>
+      <c r="L306" s="11"/>
+      <c r="M306" s="11"/>
+      <c r="N306" s="11"/>
+      <c r="O306" s="11"/>
+      <c r="P306" s="11"/>
+      <c r="Q306" s="5"/>
+    </row>
+    <row r="307" spans="2:17">
+      <c r="B307" s="4"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="11"/>
+      <c r="L307" s="11"/>
+      <c r="M307" s="11"/>
+      <c r="N307" s="11"/>
+      <c r="O307" s="11"/>
+      <c r="P307" s="11"/>
+      <c r="Q307" s="5"/>
+    </row>
+    <row r="308" spans="2:17">
+      <c r="B308" s="4"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
+      <c r="H308" s="11"/>
+      <c r="I308" s="11"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="11"/>
+      <c r="L308" s="11"/>
+      <c r="M308" s="11"/>
+      <c r="N308" s="11"/>
+      <c r="O308" s="11"/>
+      <c r="P308" s="11"/>
+      <c r="Q308" s="5"/>
+    </row>
+    <row r="309" spans="2:17">
+      <c r="B309" s="4"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="11"/>
+      <c r="M309" s="11"/>
+      <c r="N309" s="11"/>
+      <c r="O309" s="11"/>
+      <c r="P309" s="11"/>
+      <c r="Q309" s="5"/>
+    </row>
+    <row r="310" spans="2:17">
+      <c r="B310" s="4"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="11"/>
+      <c r="I310" s="11"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="11"/>
+      <c r="L310" s="11"/>
+      <c r="M310" s="11"/>
+      <c r="N310" s="11"/>
+      <c r="O310" s="11"/>
+      <c r="P310" s="11"/>
+      <c r="Q310" s="5"/>
+    </row>
+    <row r="311" spans="2:17">
+      <c r="B311" s="4"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="11"/>
+      <c r="I311" s="11"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="11"/>
+      <c r="L311" s="11"/>
+      <c r="M311" s="11"/>
+      <c r="N311" s="11"/>
+      <c r="O311" s="11"/>
+      <c r="P311" s="11"/>
+      <c r="Q311" s="5"/>
+    </row>
+    <row r="312" spans="2:17">
+      <c r="B312" s="4"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="11"/>
+      <c r="I312" s="11"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="11"/>
+      <c r="L312" s="11"/>
+      <c r="M312" s="11"/>
+      <c r="N312" s="11"/>
+      <c r="O312" s="11"/>
+      <c r="P312" s="11"/>
+      <c r="Q312" s="5"/>
+    </row>
+    <row r="313" spans="2:17">
+      <c r="B313" s="4"/>
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="11"/>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="11"/>
+      <c r="M313" s="11"/>
+      <c r="N313" s="11"/>
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="5"/>
+    </row>
+    <row r="314" spans="2:17">
+      <c r="B314" s="4"/>
+      <c r="C314" s="11"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
+      <c r="F314" s="11"/>
+      <c r="G314" s="11"/>
+      <c r="H314" s="11"/>
+      <c r="I314" s="11"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="11"/>
+      <c r="L314" s="11"/>
+      <c r="M314" s="11"/>
+      <c r="N314" s="11"/>
+      <c r="O314" s="11"/>
+      <c r="P314" s="11"/>
+      <c r="Q314" s="5"/>
+    </row>
+    <row r="315" spans="2:17">
+      <c r="B315" s="4"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+      <c r="F315" s="11"/>
+      <c r="G315" s="11"/>
+      <c r="H315" s="11"/>
+      <c r="I315" s="11"/>
+      <c r="J315" s="11"/>
+      <c r="K315" s="11"/>
+      <c r="L315" s="11"/>
+      <c r="M315" s="11"/>
+      <c r="N315" s="11"/>
+      <c r="O315" s="11"/>
+      <c r="P315" s="11"/>
+      <c r="Q315" s="5"/>
+    </row>
+    <row r="316" spans="2:17">
+      <c r="B316" s="4"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="11"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="11"/>
+      <c r="M316" s="11"/>
+      <c r="N316" s="11"/>
+      <c r="O316" s="11"/>
+      <c r="P316" s="11"/>
+      <c r="Q316" s="5"/>
+    </row>
+    <row r="317" spans="2:17">
+      <c r="B317" s="4"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="11"/>
+      <c r="H317" s="11"/>
+      <c r="I317" s="11"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="11"/>
+      <c r="M317" s="11"/>
+      <c r="N317" s="11"/>
+      <c r="O317" s="11"/>
+      <c r="P317" s="11"/>
+      <c r="Q317" s="5"/>
+    </row>
+    <row r="318" spans="2:17">
+      <c r="B318" s="4"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
+      <c r="G318" s="11"/>
+      <c r="H318" s="11"/>
+      <c r="I318" s="11"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="11"/>
+      <c r="L318" s="11"/>
+      <c r="M318" s="11"/>
+      <c r="N318" s="11"/>
+      <c r="O318" s="11"/>
+      <c r="P318" s="11"/>
+      <c r="Q318" s="5"/>
+    </row>
+    <row r="319" spans="2:17">
+      <c r="B319" s="4"/>
+      <c r="C319" s="11"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="11"/>
+      <c r="H319" s="11"/>
+      <c r="I319" s="11"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="11"/>
+      <c r="L319" s="11"/>
+      <c r="M319" s="11"/>
+      <c r="N319" s="11"/>
+      <c r="O319" s="11"/>
+      <c r="P319" s="11"/>
+      <c r="Q319" s="5"/>
+    </row>
+    <row r="320" spans="2:17">
+      <c r="B320" s="4"/>
+      <c r="C320" s="11"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
+      <c r="G320" s="11"/>
+      <c r="H320" s="11"/>
+      <c r="I320" s="11"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="11"/>
+      <c r="L320" s="11"/>
+      <c r="M320" s="11"/>
+      <c r="N320" s="11"/>
+      <c r="O320" s="11"/>
+      <c r="P320" s="11"/>
+      <c r="Q320" s="5"/>
+    </row>
+    <row r="321" spans="2:17">
+      <c r="B321" s="4"/>
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="11"/>
+      <c r="M321" s="11"/>
+      <c r="N321" s="11"/>
+      <c r="O321" s="11"/>
+      <c r="P321" s="11"/>
+      <c r="Q321" s="5"/>
+    </row>
+    <row r="322" spans="2:17">
+      <c r="B322" s="4"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="11"/>
+      <c r="I322" s="11"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11"/>
+      <c r="M322" s="11"/>
+      <c r="N322" s="11"/>
+      <c r="O322" s="11"/>
+      <c r="P322" s="11"/>
+      <c r="Q322" s="5"/>
+    </row>
+    <row r="323" spans="2:17">
+      <c r="B323" s="4"/>
+      <c r="C323" s="11"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="11"/>
+      <c r="I323" s="11"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="11"/>
+      <c r="L323" s="11"/>
+      <c r="M323" s="11"/>
+      <c r="N323" s="11"/>
+      <c r="O323" s="11"/>
+      <c r="P323" s="11"/>
+      <c r="Q323" s="5"/>
+    </row>
+    <row r="324" spans="2:17">
+      <c r="B324" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
+      <c r="M324" s="11"/>
+      <c r="N324" s="11"/>
+      <c r="O324" s="11"/>
+      <c r="P324" s="11"/>
+      <c r="Q324" s="5"/>
+    </row>
+    <row r="325" spans="2:17">
+      <c r="B325" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C325" s="11"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11"/>
+      <c r="M325" s="11"/>
+      <c r="N325" s="11"/>
+      <c r="O325" s="11"/>
+      <c r="P325" s="11"/>
+      <c r="Q325" s="5"/>
+    </row>
+    <row r="326" spans="2:17">
+      <c r="B326" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
+      <c r="M326" s="11"/>
+      <c r="N326" s="11"/>
+      <c r="O326" s="11"/>
+      <c r="P326" s="11"/>
+      <c r="Q326" s="5"/>
+    </row>
+    <row r="327" spans="2:17">
+      <c r="B327" s="4"/>
+      <c r="C327" s="11"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
+      <c r="M327" s="11"/>
+      <c r="N327" s="11"/>
+      <c r="O327" s="11"/>
+      <c r="P327" s="11"/>
+      <c r="Q327" s="5"/>
+    </row>
+    <row r="328" spans="2:17">
+      <c r="B328" s="4"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="11"/>
+      <c r="I328" s="11"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="11"/>
+      <c r="L328" s="11"/>
+      <c r="M328" s="11"/>
+      <c r="N328" s="11"/>
+      <c r="O328" s="11"/>
+      <c r="P328" s="11"/>
+      <c r="Q328" s="5"/>
+    </row>
+    <row r="329" spans="2:17">
+      <c r="B329" s="4"/>
+      <c r="C329" s="11"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="11"/>
+      <c r="I329" s="11"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="11"/>
+      <c r="L329" s="11"/>
+      <c r="M329" s="11"/>
+      <c r="N329" s="11"/>
+      <c r="O329" s="11"/>
+      <c r="P329" s="11"/>
+      <c r="Q329" s="5"/>
+    </row>
+    <row r="330" spans="2:17">
+      <c r="B330" s="4"/>
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="11"/>
+      <c r="I330" s="11"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="11"/>
+      <c r="L330" s="11"/>
+      <c r="M330" s="11"/>
+      <c r="N330" s="11"/>
+      <c r="O330" s="11"/>
+      <c r="P330" s="11"/>
+      <c r="Q330" s="5"/>
+    </row>
+    <row r="331" spans="2:17">
+      <c r="B331" s="4"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="11"/>
+      <c r="I331" s="11"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="11"/>
+      <c r="M331" s="11"/>
+      <c r="N331" s="11"/>
+      <c r="O331" s="11"/>
+      <c r="P331" s="11"/>
+      <c r="Q331" s="5"/>
+    </row>
+    <row r="332" spans="2:17">
+      <c r="B332" s="4"/>
+      <c r="C332" s="11"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="11"/>
+      <c r="I332" s="11"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="11"/>
+      <c r="M332" s="11"/>
+      <c r="N332" s="11"/>
+      <c r="O332" s="11"/>
+      <c r="P332" s="11"/>
+      <c r="Q332" s="5"/>
+    </row>
+    <row r="333" spans="2:17">
+      <c r="B333" s="4"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="11"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="11"/>
+      <c r="M333" s="11"/>
+      <c r="N333" s="11"/>
+      <c r="O333" s="11"/>
+      <c r="P333" s="11"/>
+      <c r="Q333" s="5"/>
+    </row>
+    <row r="334" spans="2:17">
+      <c r="B334" s="4"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="11"/>
+      <c r="O334" s="11"/>
+      <c r="P334" s="11"/>
+      <c r="Q334" s="5"/>
+    </row>
+    <row r="335" spans="2:17">
+      <c r="B335" s="4"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="11"/>
+      <c r="I335" s="11"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="11"/>
+      <c r="M335" s="11"/>
+      <c r="N335" s="11"/>
+      <c r="O335" s="11"/>
+      <c r="P335" s="11"/>
+      <c r="Q335" s="5"/>
+    </row>
+    <row r="336" spans="2:17">
+      <c r="B336" s="4"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
+      <c r="G336" s="11"/>
+      <c r="H336" s="11"/>
+      <c r="I336" s="11"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="11"/>
+      <c r="L336" s="11"/>
+      <c r="M336" s="11"/>
+      <c r="N336" s="11"/>
+      <c r="O336" s="11"/>
+      <c r="P336" s="11"/>
+      <c r="Q336" s="5"/>
+    </row>
+    <row r="337" spans="2:17">
+      <c r="B337" s="4"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="11"/>
+      <c r="I337" s="11"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="11"/>
+      <c r="M337" s="11"/>
+      <c r="N337" s="11"/>
+      <c r="O337" s="11"/>
+      <c r="P337" s="11"/>
+      <c r="Q337" s="5"/>
+    </row>
+    <row r="338" spans="2:17">
+      <c r="B338" s="4"/>
+      <c r="C338" s="11"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="11"/>
+      <c r="I338" s="11"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="11"/>
+      <c r="L338" s="11"/>
+      <c r="M338" s="11"/>
+      <c r="N338" s="11"/>
+      <c r="O338" s="11"/>
+      <c r="P338" s="11"/>
+      <c r="Q338" s="5"/>
+    </row>
+    <row r="339" spans="2:17">
+      <c r="B339" s="4"/>
+      <c r="C339" s="11"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11"/>
+      <c r="G339" s="11"/>
+      <c r="H339" s="11"/>
+      <c r="I339" s="11"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="11"/>
+      <c r="L339" s="11"/>
+      <c r="M339" s="11"/>
+      <c r="N339" s="11"/>
+      <c r="O339" s="11"/>
+      <c r="P339" s="11"/>
+      <c r="Q339" s="5"/>
+    </row>
+    <row r="340" spans="2:17">
+      <c r="B340" s="4"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="11"/>
+      <c r="I340" s="11"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="11"/>
+      <c r="L340" s="11"/>
+      <c r="M340" s="11"/>
+      <c r="N340" s="11"/>
+      <c r="O340" s="11"/>
+      <c r="P340" s="11"/>
+      <c r="Q340" s="5"/>
+    </row>
+    <row r="341" spans="2:17">
+      <c r="B341" s="7"/>
+      <c r="C341" s="8"/>
+      <c r="D341" s="8"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8"/>
+      <c r="G341" s="8"/>
+      <c r="H341" s="8"/>
+      <c r="I341" s="8"/>
+      <c r="J341" s="8"/>
+      <c r="K341" s="8"/>
+      <c r="L341" s="8"/>
+      <c r="M341" s="8"/>
+      <c r="N341" s="8"/>
+      <c r="O341" s="8"/>
+      <c r="P341" s="8"/>
+      <c r="Q341" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>